--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145E495-4655-43D7-81B7-4AB1F6D51C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F52970-9586-4D9E-B9FD-3BD084B83297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Documents\GitHub\rpa-solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F52970-9586-4D9E-B9FD-3BD084B83297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEBD0EC-D4D5-4F76-B2D6-F8774C91C497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="11400" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,176 +25,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>Movie</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>The Fabelmans</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt14208870/?ref_=nm_flmg_dr_1</t>
-  </si>
-  <si>
-    <t>Marcus Mumford: Cannibal</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt21318180/?ref_=nm_flmg_dr_2</t>
-  </si>
-  <si>
     <t>West Side Story</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt3581652/?ref_=nm_flmg_dr_3</t>
-  </si>
-  <si>
     <t>Ready Player One</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt1677720/?ref_=nm_flmg_dr_4</t>
-  </si>
-  <si>
     <t>The Post</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt6294822/?ref_=nm_flmg_dr_5</t>
-  </si>
-  <si>
     <t>The BFG</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt3691740/?ref_=nm_flmg_dr_6</t>
-  </si>
-  <si>
     <t>Bridge of Spies</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt3682448/?ref_=nm_flmg_dr_7</t>
-  </si>
-  <si>
     <t>Lincoln</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0443272/?ref_=nm_flmg_dr_8</t>
-  </si>
-  <si>
     <t>War Horse</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt1568911/?ref_=nm_flmg_dr_9</t>
-  </si>
-  <si>
     <t>The Adventures of Tintin</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0983193/?ref_=nm_flmg_dr_10</t>
-  </si>
-  <si>
-    <t>A Timeless Call</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt1287857/?ref_=nm_flmg_dr_11</t>
-  </si>
-  <si>
     <t>Indiana Jones and the Kingdom of the Crystal Skull</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0367882/?ref_=nm_flmg_dr_12</t>
-  </si>
-  <si>
     <t>Munich</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0408306/?ref_=nm_flmg_dr_13</t>
-  </si>
-  <si>
     <t>War of the Worlds</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0407304/?ref_=nm_flmg_dr_14</t>
-  </si>
-  <si>
     <t>The Terminal</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0362227/?ref_=nm_flmg_dr_15</t>
-  </si>
-  <si>
     <t>Catch Me If You Can</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0264464/?ref_=nm_flmg_dr_16</t>
-  </si>
-  <si>
     <t>Minority Report</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0181689/?ref_=nm_flmg_dr_17</t>
-  </si>
-  <si>
     <t>A.I. Artificial Intelligence</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0212720/?ref_=nm_flmg_dr_18</t>
-  </si>
-  <si>
-    <t>Jaws: Deleted Scenes</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt8886044/?ref_=nm_flmg_dr_19</t>
-  </si>
-  <si>
-    <t>The Unfinished Journey</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt0236824/?ref_=nm_flmg_dr_20</t>
-  </si>
-  <si>
-    <t>Saving Private Ryan</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt0120815/?ref_=nm_flmg_dr_21</t>
-  </si>
-  <si>
-    <t>Amistad</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt0118607/?ref_=nm_flmg_dr_22</t>
-  </si>
-  <si>
     <t>The Lost World: Jurassic Park</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0119567/?ref_=nm_flmg_dr_23</t>
-  </si>
-  <si>
-    <t>Steven Spielberg's Director's Chair</t>
-  </si>
-  <si>
-    <t>https://www.imdb.com/title/tt0124142/?ref_=nm_flmg_dr_24</t>
-  </si>
-  <si>
     <t>Schindler's List</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0108052/?ref_=nm_flmg_dr_25</t>
-  </si>
-  <si>
     <t>Jurassic Park</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0107290/?ref_=nm_flmg_dr_26</t>
-  </si>
-  <si>
     <t>Hook</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt0102057/?ref_=nm_flmg_dr_27</t>
-  </si>
-  <si>
     <t>The Visionary</t>
   </si>
   <si>
@@ -373,6 +265,15 @@
   </si>
   <si>
     <t>https://www.imdb.com/title/tt0052991/?ref_=nm_flmg_dr_58</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Worldwide Gross</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
   </si>
 </sst>
 </file>
@@ -693,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -701,324 +602,408 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2">
+        <v>76016171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3">
+        <v>582918849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C4">
+        <v>180419276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5">
+        <v>195243411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C6">
+        <v>165478348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7">
+        <v>275293450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C8">
+        <v>177584879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9">
+        <v>373993951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C10">
+        <v>790653942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C11">
+        <v>130982129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C12">
+        <v>603873119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C13">
+        <v>219100084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C14">
+        <v>352114312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C15">
+        <v>358372926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C16">
+        <v>235926552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C17">
+        <v>618638999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C18">
+        <v>322161245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C19">
+        <v>1109802321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C20">
+        <v>300854823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>74134790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>474171806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>333107271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>792910554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>1941</v>
+      </c>
+      <c r="C25">
+        <v>92455742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>306889114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>476493470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>7504841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="31" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B32" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,151 +1011,151 @@
         <v>1941</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
